--- a/Results/future_timeseries.xlsx
+++ b/Results/future_timeseries.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>144.5316314697266</v>
+        <v>-62.98578643798828</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>142.9462890625</v>
+        <v>-62.36752700805664</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>141.2638397216797</v>
+        <v>-61.31355667114258</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>139.6577758789062</v>
+        <v>-59.86751556396484</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>138.1905212402344</v>
+        <v>-58.06140899658203</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>136.8837127685547</v>
+        <v>-55.91387557983398</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>135.7442932128906</v>
+        <v>-53.33919525146484</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>134.7680969238281</v>
+        <v>-50.17668914794922</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>133.9450531005859</v>
+        <v>-46.91881561279297</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133.2615203857422</v>
+        <v>-44.34164047241211</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132.7024536132812</v>
+        <v>-42.40146636962891</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>132.2516174316406</v>
+        <v>-41.14899063110352</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>131.8935089111328</v>
+        <v>-40.65303802490234</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131.6134948730469</v>
+        <v>-40.87509155273438</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131.3982849121094</v>
+        <v>-41.66856002807617</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>131.2360992431641</v>
+        <v>-42.80256271362305</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>131.1163940429688</v>
+        <v>-44.10339736938477</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>131.0303344726562</v>
+        <v>-45.39654922485352</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>130.9703674316406</v>
+        <v>-46.46758270263672</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>130.9303436279297</v>
+        <v>-47.36962127685547</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>130.9051361083984</v>
+        <v>-47.98893737792969</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>130.8908996582031</v>
+        <v>-48.27663421630859</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>130.8843841552734</v>
+        <v>-48.24024963378906</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>130.8831787109375</v>
+        <v>-47.91205215454102</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>130.8854370117188</v>
+        <v>-47.34436416625977</v>
       </c>
     </row>
   </sheetData>
